--- a/data/pca/factorExposure/factorExposure_2018-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01145917807060483</v>
+        <v>-0.01791181062782563</v>
       </c>
       <c r="C2">
-        <v>-0.02553258404419656</v>
+        <v>0.01859014511873398</v>
       </c>
       <c r="D2">
-        <v>-0.0340435585329341</v>
+        <v>-0.03049078537835246</v>
       </c>
       <c r="E2">
-        <v>0.003258663623283301</v>
+        <v>-0.01957291673359367</v>
       </c>
       <c r="F2">
-        <v>0.1088001141123525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.001648976003265076</v>
+      </c>
+      <c r="G2">
+        <v>0.03713289232652938</v>
+      </c>
+      <c r="H2">
+        <v>-0.04922021565521811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09365287992290586</v>
+        <v>-0.07186863337228466</v>
       </c>
       <c r="C3">
-        <v>-0.0398298532483056</v>
+        <v>-0.01061848872608306</v>
       </c>
       <c r="D3">
-        <v>-0.03650543885198079</v>
+        <v>-0.07997623856584062</v>
       </c>
       <c r="E3">
-        <v>-0.02825910105356907</v>
+        <v>-0.006087781821724639</v>
       </c>
       <c r="F3">
-        <v>0.3658181655279391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01949161024823659</v>
+      </c>
+      <c r="G3">
+        <v>0.1554437718748029</v>
+      </c>
+      <c r="H3">
+        <v>-0.1296968197262341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04363449034515407</v>
+        <v>-0.03856707518519592</v>
       </c>
       <c r="C4">
-        <v>-0.01143018616348658</v>
+        <v>0.00665438731478312</v>
       </c>
       <c r="D4">
-        <v>-0.03549611430768219</v>
+        <v>-0.06417322035192682</v>
       </c>
       <c r="E4">
-        <v>0.03612575706245807</v>
+        <v>0.01625666451211822</v>
       </c>
       <c r="F4">
-        <v>0.06234140452923626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03795780219668794</v>
+      </c>
+      <c r="G4">
+        <v>0.04235725671141016</v>
+      </c>
+      <c r="H4">
+        <v>-0.05839766804257149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03203042352135326</v>
+        <v>-0.02239343394073921</v>
       </c>
       <c r="C6">
-        <v>-0.009508183542853205</v>
+        <v>0.002501068077973936</v>
       </c>
       <c r="D6">
-        <v>-0.03116577062017378</v>
+        <v>-0.06436860645553821</v>
       </c>
       <c r="E6">
-        <v>0.02500621043442067</v>
+        <v>0.006115127297478561</v>
       </c>
       <c r="F6">
-        <v>0.006908630848021629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03195052806250705</v>
+      </c>
+      <c r="G6">
+        <v>0.01435833920334877</v>
+      </c>
+      <c r="H6">
+        <v>-0.06063143596963394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03489104327708235</v>
+        <v>-0.01131840805757656</v>
       </c>
       <c r="C7">
-        <v>0.03039551628346226</v>
+        <v>0.004520661472277952</v>
       </c>
       <c r="D7">
-        <v>-0.03501615797874283</v>
+        <v>-0.03615775622864498</v>
       </c>
       <c r="E7">
-        <v>0.02332190509510637</v>
+        <v>0.04336336038260634</v>
       </c>
       <c r="F7">
-        <v>0.03980030297800238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0009002967033912155</v>
+      </c>
+      <c r="G7">
+        <v>0.02187279600679223</v>
+      </c>
+      <c r="H7">
+        <v>-0.03824479550565942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01527627781290705</v>
+        <v>-0.002390726588696715</v>
       </c>
       <c r="C8">
-        <v>-0.0004551994460397064</v>
+        <v>-0.001197352624474226</v>
       </c>
       <c r="D8">
-        <v>-0.04517336812169899</v>
+        <v>-0.01472081053254362</v>
       </c>
       <c r="E8">
-        <v>0.03088677804047459</v>
+        <v>0.00908841654228665</v>
       </c>
       <c r="F8">
-        <v>0.06566127224358018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01164669469742815</v>
+      </c>
+      <c r="G8">
+        <v>0.03776111177687842</v>
+      </c>
+      <c r="H8">
+        <v>-0.03568603389284036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03237373089337279</v>
+        <v>-0.030584025756025</v>
       </c>
       <c r="C9">
-        <v>-0.008353075734154008</v>
+        <v>0.002873006436486324</v>
       </c>
       <c r="D9">
-        <v>-0.03990252147952937</v>
+        <v>-0.04635615334299125</v>
       </c>
       <c r="E9">
-        <v>0.02525173528443533</v>
+        <v>0.005698109236579926</v>
       </c>
       <c r="F9">
-        <v>0.08057956036915856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01408064957820761</v>
+      </c>
+      <c r="G9">
+        <v>0.04340286860093819</v>
+      </c>
+      <c r="H9">
+        <v>-0.05964260441125613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04237042710454183</v>
+        <v>-0.1284045076650145</v>
       </c>
       <c r="C10">
-        <v>-0.0006539598696930173</v>
+        <v>-0.005858957143707929</v>
       </c>
       <c r="D10">
-        <v>0.1364669167674183</v>
+        <v>0.1570419031503467</v>
       </c>
       <c r="E10">
-        <v>-0.07286345857029666</v>
+        <v>-0.001237893727972259</v>
       </c>
       <c r="F10">
-        <v>0.06752858621153644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04112214551730038</v>
+      </c>
+      <c r="G10">
+        <v>0.02915897463789485</v>
+      </c>
+      <c r="H10">
+        <v>-0.0003881818431768789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02984887501128541</v>
+        <v>-0.01810501054841156</v>
       </c>
       <c r="C11">
-        <v>-0.01881636563570517</v>
+        <v>-0.00915141084904417</v>
       </c>
       <c r="D11">
-        <v>-0.0342164656317596</v>
+        <v>-0.04983442328500778</v>
       </c>
       <c r="E11">
-        <v>0.02164433604859946</v>
+        <v>-0.001064900380129371</v>
       </c>
       <c r="F11">
-        <v>0.02813166256099281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01081885710507346</v>
+      </c>
+      <c r="G11">
+        <v>0.02028997466852436</v>
+      </c>
+      <c r="H11">
+        <v>-0.05277975375805218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04083053839250605</v>
+        <v>-0.02180881689862045</v>
       </c>
       <c r="C12">
-        <v>-0.01692309756984659</v>
+        <v>-0.005319343488767488</v>
       </c>
       <c r="D12">
-        <v>-0.02831761693936465</v>
+        <v>-0.04850297375648082</v>
       </c>
       <c r="E12">
-        <v>0.0307003150230636</v>
+        <v>0.01145778906016694</v>
       </c>
       <c r="F12">
-        <v>0.003772112506023784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0137159954424871</v>
+      </c>
+      <c r="G12">
+        <v>0.004707738195641456</v>
+      </c>
+      <c r="H12">
+        <v>-0.02224178100570657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0117240946486034</v>
+        <v>-0.02368751742743938</v>
       </c>
       <c r="C13">
-        <v>-0.02032712827166571</v>
+        <v>0.01471436727301251</v>
       </c>
       <c r="D13">
-        <v>-0.0142378174576502</v>
+        <v>-0.02532163655666918</v>
       </c>
       <c r="E13">
-        <v>0.01208213611919555</v>
+        <v>-0.0124560031635156</v>
       </c>
       <c r="F13">
-        <v>0.07770841727115688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01738881588448473</v>
+      </c>
+      <c r="G13">
+        <v>0.05653343531311548</v>
+      </c>
+      <c r="H13">
+        <v>-0.08026347999747172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02033249185940321</v>
+        <v>-0.01288103334181927</v>
       </c>
       <c r="C14">
-        <v>0.003458949917342401</v>
+        <v>0.002169733099572171</v>
       </c>
       <c r="D14">
-        <v>-0.02123084809711615</v>
+        <v>-0.0177532923367889</v>
       </c>
       <c r="E14">
-        <v>0.02309529942197084</v>
+        <v>0.01355850285776059</v>
       </c>
       <c r="F14">
-        <v>0.05079176751035431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.007348170297745618</v>
+      </c>
+      <c r="G14">
+        <v>0.03956386229463916</v>
+      </c>
+      <c r="H14">
+        <v>-0.01339909254841463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03102822374045467</v>
+        <v>-0.01951262388136733</v>
       </c>
       <c r="C16">
-        <v>-0.01879956078320499</v>
+        <v>-0.008683748444032602</v>
       </c>
       <c r="D16">
-        <v>-0.03813279822790735</v>
+        <v>-0.04211186875820536</v>
       </c>
       <c r="E16">
-        <v>0.02495244045167509</v>
+        <v>0.002614276760194028</v>
       </c>
       <c r="F16">
-        <v>0.0286223941693399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01256154564044726</v>
+      </c>
+      <c r="G16">
+        <v>0.01907714102573118</v>
+      </c>
+      <c r="H16">
+        <v>-0.03894784091002865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03363044641492</v>
+        <v>-0.02065612238436415</v>
       </c>
       <c r="C19">
-        <v>-0.01490656819243481</v>
+        <v>0.002253249778324486</v>
       </c>
       <c r="D19">
-        <v>-0.04403039564913007</v>
+        <v>-0.04834094858592456</v>
       </c>
       <c r="E19">
-        <v>0.04072179208268253</v>
+        <v>0.01046297894626192</v>
       </c>
       <c r="F19">
-        <v>0.08424809088287306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02135448804760524</v>
+      </c>
+      <c r="G19">
+        <v>0.05695173962769876</v>
+      </c>
+      <c r="H19">
+        <v>-0.05506464069176871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002301367511780063</v>
+        <v>-0.006337479914213937</v>
       </c>
       <c r="C20">
-        <v>0.006691051130929756</v>
+        <v>0.006298410487919851</v>
       </c>
       <c r="D20">
-        <v>-0.007060663370127341</v>
+        <v>-0.02308078685133707</v>
       </c>
       <c r="E20">
-        <v>0.01617284652978683</v>
+        <v>0.003994651753483595</v>
       </c>
       <c r="F20">
-        <v>0.06404468601359489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.008144696560470994</v>
+      </c>
+      <c r="G20">
+        <v>0.05016934195653517</v>
+      </c>
+      <c r="H20">
+        <v>-0.03065692314811583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01382675519481109</v>
+        <v>-0.01236622974169161</v>
       </c>
       <c r="C21">
-        <v>0.01686773137631012</v>
+        <v>0.007663470216508921</v>
       </c>
       <c r="D21">
-        <v>-0.03687959517420088</v>
+        <v>-0.02680581436634133</v>
       </c>
       <c r="E21">
-        <v>0.005801264987949712</v>
+        <v>0.01711497803060464</v>
       </c>
       <c r="F21">
-        <v>0.02801194147412469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-2.137006033047669e-05</v>
+      </c>
+      <c r="G21">
+        <v>0.04262922817619218</v>
+      </c>
+      <c r="H21">
+        <v>-0.04616351930717263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02852575686242532</v>
+        <v>-0.01431623255403622</v>
       </c>
       <c r="C24">
-        <v>-0.01676788117200244</v>
+        <v>-0.003245920805608281</v>
       </c>
       <c r="D24">
-        <v>-0.0194394254094466</v>
+        <v>-0.0440875094665209</v>
       </c>
       <c r="E24">
-        <v>0.01850673590522046</v>
+        <v>0.001125291169684531</v>
       </c>
       <c r="F24">
-        <v>0.0330134121040886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.008775517572250065</v>
+      </c>
+      <c r="G24">
+        <v>0.01463345256065236</v>
+      </c>
+      <c r="H24">
+        <v>-0.04707967369329469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03279139771605111</v>
+        <v>-0.02808021241782007</v>
       </c>
       <c r="C25">
-        <v>-0.01529580518520044</v>
+        <v>-0.001186638164263994</v>
       </c>
       <c r="D25">
-        <v>-0.03259178214886396</v>
+        <v>-0.04783491204447125</v>
       </c>
       <c r="E25">
-        <v>0.01755034415089483</v>
+        <v>0.007149207096658336</v>
       </c>
       <c r="F25">
-        <v>0.03440267765982095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0177342719454323</v>
+      </c>
+      <c r="G25">
+        <v>0.01651525049249783</v>
+      </c>
+      <c r="H25">
+        <v>-0.04737244160880916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01837238599273067</v>
+        <v>-0.01348871648788146</v>
       </c>
       <c r="C26">
-        <v>-0.008974973841244589</v>
+        <v>0.01960730042863498</v>
       </c>
       <c r="D26">
-        <v>-0.02472183640736619</v>
+        <v>-0.01069787232740053</v>
       </c>
       <c r="E26">
-        <v>0.0004767678121202881</v>
+        <v>0.001188973052293968</v>
       </c>
       <c r="F26">
-        <v>0.05480932154742487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.001251395132011649</v>
+      </c>
+      <c r="G26">
+        <v>0.02596966160373105</v>
+      </c>
+      <c r="H26">
+        <v>-0.02485039563329525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04167443172463402</v>
+        <v>-0.01646955549315817</v>
       </c>
       <c r="C27">
-        <v>-0.01918116110581791</v>
+        <v>-0.005608328095707522</v>
       </c>
       <c r="D27">
-        <v>-0.006504447377370133</v>
+        <v>-0.01535276270906718</v>
       </c>
       <c r="E27">
-        <v>0.0348758747906358</v>
+        <v>0.004400817424095006</v>
       </c>
       <c r="F27">
-        <v>0.01962052173850696</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.007742666843963639</v>
+      </c>
+      <c r="G27">
+        <v>0.008126162715100254</v>
+      </c>
+      <c r="H27">
+        <v>0.0006326135334357134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07435338504767691</v>
+        <v>-0.1757121898365163</v>
       </c>
       <c r="C28">
-        <v>-0.002837034940034816</v>
+        <v>0.00358805081851799</v>
       </c>
       <c r="D28">
-        <v>0.1924100756263604</v>
+        <v>0.1977202065326558</v>
       </c>
       <c r="E28">
-        <v>-0.1095775767293079</v>
+        <v>0.009385880802558418</v>
       </c>
       <c r="F28">
-        <v>0.06622693110896341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03859616817490957</v>
+      </c>
+      <c r="G28">
+        <v>0.01856438405894529</v>
+      </c>
+      <c r="H28">
+        <v>0.008585235318728712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02235833322236236</v>
+        <v>-0.01757295324889208</v>
       </c>
       <c r="C29">
-        <v>0.002121568376682418</v>
+        <v>0.0009192812793497822</v>
       </c>
       <c r="D29">
-        <v>-0.02317886667184804</v>
+        <v>-0.01787650660118052</v>
       </c>
       <c r="E29">
-        <v>0.0235806786498538</v>
+        <v>0.01249782192951678</v>
       </c>
       <c r="F29">
-        <v>0.0478761553291007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.007630574269681905</v>
+      </c>
+      <c r="G29">
+        <v>0.03949252921575367</v>
+      </c>
+      <c r="H29">
+        <v>-0.008974780548131249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05363512143490446</v>
+        <v>-0.04076268926364485</v>
       </c>
       <c r="C30">
-        <v>-0.06696281615723025</v>
+        <v>0.00552846854877334</v>
       </c>
       <c r="D30">
-        <v>-0.05464026231910203</v>
+        <v>-0.09359362896862997</v>
       </c>
       <c r="E30">
-        <v>0.04697027196668693</v>
+        <v>-0.03031618542314126</v>
       </c>
       <c r="F30">
-        <v>0.08279638501606387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03971054167464903</v>
+      </c>
+      <c r="G30">
+        <v>0.05645037850177803</v>
+      </c>
+      <c r="H30">
+        <v>-0.07743026069261733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05684785575937241</v>
+        <v>-0.04676053940602582</v>
       </c>
       <c r="C31">
-        <v>-0.03367064141681991</v>
+        <v>-0.007987678851153221</v>
       </c>
       <c r="D31">
-        <v>-0.02103223630991173</v>
+        <v>-0.03177731220154415</v>
       </c>
       <c r="E31">
-        <v>0.02131127201465868</v>
+        <v>-0.002616690294434118</v>
       </c>
       <c r="F31">
-        <v>0.03361528592284374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.001659744885277261</v>
+      </c>
+      <c r="G31">
+        <v>0.01767060172559661</v>
+      </c>
+      <c r="H31">
+        <v>-0.00492094972729741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02279523772124701</v>
+        <v>-0.01008571818633</v>
       </c>
       <c r="C32">
-        <v>0.0145300020596179</v>
+        <v>-0.01278465139946957</v>
       </c>
       <c r="D32">
-        <v>-0.05787706638742206</v>
+        <v>-0.01462453565371163</v>
       </c>
       <c r="E32">
-        <v>0.04417486829578779</v>
+        <v>0.02977402242610472</v>
       </c>
       <c r="F32">
-        <v>0.04413101743759209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03292206261024482</v>
+      </c>
+      <c r="G32">
+        <v>0.04110993451661565</v>
+      </c>
+      <c r="H32">
+        <v>-0.04747935915215152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03399744870788807</v>
+        <v>-0.02595623286179069</v>
       </c>
       <c r="C33">
-        <v>-0.04047714098787931</v>
+        <v>0.001755038057123917</v>
       </c>
       <c r="D33">
-        <v>-0.05451786489113927</v>
+        <v>-0.04794953903041926</v>
       </c>
       <c r="E33">
-        <v>0.009497224423151167</v>
+        <v>-0.01978971054920736</v>
       </c>
       <c r="F33">
-        <v>0.06023609534814926</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.003564222463888977</v>
+      </c>
+      <c r="G33">
+        <v>0.03970240814591031</v>
+      </c>
+      <c r="H33">
+        <v>-0.05497199878381104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03418604516131782</v>
+        <v>-0.02638898090127761</v>
       </c>
       <c r="C34">
-        <v>-0.01018630784429819</v>
+        <v>-0.01747305527853556</v>
       </c>
       <c r="D34">
-        <v>-0.03591074625724477</v>
+        <v>-0.04698519576828056</v>
       </c>
       <c r="E34">
-        <v>0.03549939664652019</v>
+        <v>0.01427414595083841</v>
       </c>
       <c r="F34">
-        <v>0.03339823936738558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01875236287032914</v>
+      </c>
+      <c r="G34">
+        <v>0.008810511711257484</v>
+      </c>
+      <c r="H34">
+        <v>-0.03947266446895266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01755418951934701</v>
+        <v>-0.01612068887178884</v>
       </c>
       <c r="C36">
-        <v>0.0007620372276982157</v>
+        <v>0.007067129110756402</v>
       </c>
       <c r="D36">
-        <v>-0.01582141663858409</v>
+        <v>-0.006947383909957585</v>
       </c>
       <c r="E36">
-        <v>0.01051157494313881</v>
+        <v>0.007919388356836716</v>
       </c>
       <c r="F36">
-        <v>0.02719194044202639</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0005796730683720697</v>
+      </c>
+      <c r="G36">
+        <v>0.01762653657641431</v>
+      </c>
+      <c r="H36">
+        <v>-0.01895630230927468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009179501952041603</v>
+        <v>-0.02717223564946467</v>
       </c>
       <c r="C38">
-        <v>-0.00471237185040911</v>
+        <v>-0.01456074330828959</v>
       </c>
       <c r="D38">
-        <v>-0.001004665406986834</v>
+        <v>-0.01386243294188238</v>
       </c>
       <c r="E38">
-        <v>-0.02215306865717424</v>
+        <v>0.0004164264707731203</v>
       </c>
       <c r="F38">
-        <v>0.04245496815167311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.006970888936351514</v>
+      </c>
+      <c r="G38">
+        <v>0.02177338624619148</v>
+      </c>
+      <c r="H38">
+        <v>-0.04113385201946308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02846980422960897</v>
+        <v>-0.01038567678046994</v>
       </c>
       <c r="C39">
-        <v>-0.0184437028616055</v>
+        <v>-0.004728967204770772</v>
       </c>
       <c r="D39">
-        <v>-0.05800221032573808</v>
+        <v>-0.08956449424628438</v>
       </c>
       <c r="E39">
-        <v>0.02863338818750012</v>
+        <v>-0.005778089208077629</v>
       </c>
       <c r="F39">
-        <v>0.04586617137097049</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01615848104340486</v>
+      </c>
+      <c r="G39">
+        <v>0.03118830174365177</v>
+      </c>
+      <c r="H39">
+        <v>-0.08128140473722258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02080543633130618</v>
+        <v>-0.02660129464346576</v>
       </c>
       <c r="C40">
-        <v>-0.04697901006691612</v>
+        <v>0.0008553073304485156</v>
       </c>
       <c r="D40">
-        <v>-0.02020866778321597</v>
+        <v>-0.03583361933608638</v>
       </c>
       <c r="E40">
-        <v>0.03362003043658963</v>
+        <v>-0.02291164441033433</v>
       </c>
       <c r="F40">
-        <v>0.05110484017910982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03495495208118669</v>
+      </c>
+      <c r="G40">
+        <v>0.01692282431763538</v>
+      </c>
+      <c r="H40">
+        <v>-0.06729868455600173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005148331694925218</v>
+        <v>-0.01330240337750519</v>
       </c>
       <c r="C41">
-        <v>0.000696275134275591</v>
+        <v>0.002726410045406386</v>
       </c>
       <c r="D41">
-        <v>-0.01111071424255848</v>
+        <v>0.01175870663477812</v>
       </c>
       <c r="E41">
-        <v>-0.009649851383080936</v>
+        <v>0.003199215239313678</v>
       </c>
       <c r="F41">
-        <v>0.004996465807410069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006693827201145742</v>
+      </c>
+      <c r="G41">
+        <v>-0.00167904657381386</v>
+      </c>
+      <c r="H41">
+        <v>0.0008347574067617349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2501525314658973</v>
+        <v>-0.1296552634593953</v>
       </c>
       <c r="C42">
-        <v>-0.1927607449956935</v>
+        <v>0.08285412800876718</v>
       </c>
       <c r="D42">
-        <v>-0.3490342861910061</v>
+        <v>-0.2407392473224156</v>
       </c>
       <c r="E42">
-        <v>-0.8119757613626272</v>
+        <v>-0.2268949963156483</v>
       </c>
       <c r="F42">
-        <v>-0.2641936297999023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8528991015937022</v>
+      </c>
+      <c r="G42">
+        <v>-0.3420602132151669</v>
+      </c>
+      <c r="H42">
+        <v>-0.04244195945341125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003600378452999525</v>
+        <v>-0.01434787641573267</v>
       </c>
       <c r="C43">
-        <v>-0.002177504191881838</v>
+        <v>0.00290492323129903</v>
       </c>
       <c r="D43">
-        <v>-0.01362209364011473</v>
+        <v>0.00807671354101761</v>
       </c>
       <c r="E43">
-        <v>-0.003086401205251592</v>
+        <v>-0.0001786639889722012</v>
       </c>
       <c r="F43">
-        <v>0.02369646080049924</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004642356848205773</v>
+      </c>
+      <c r="G43">
+        <v>0.0004151846897516214</v>
+      </c>
+      <c r="H43">
+        <v>-0.006316902871521223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02266745333571639</v>
+        <v>-0.01483089826520208</v>
       </c>
       <c r="C44">
-        <v>0.005608001801710782</v>
+        <v>-0.004143769090004705</v>
       </c>
       <c r="D44">
-        <v>-0.04204878684090721</v>
+        <v>-0.04283698624957784</v>
       </c>
       <c r="E44">
-        <v>0.006384141031205938</v>
+        <v>0.01360964500219217</v>
       </c>
       <c r="F44">
-        <v>0.09569030996349645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.00584346412264007</v>
+      </c>
+      <c r="G44">
+        <v>0.03999557003090425</v>
+      </c>
+      <c r="H44">
+        <v>-0.06236183724961143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01997297469819958</v>
+        <v>-0.01000071662230461</v>
       </c>
       <c r="C46">
-        <v>-0.008754965891524675</v>
+        <v>0.006603547469139795</v>
       </c>
       <c r="D46">
-        <v>-0.04476663203577713</v>
+        <v>-0.01622406169559974</v>
       </c>
       <c r="E46">
-        <v>0.02077861087617989</v>
+        <v>0.001112143739025379</v>
       </c>
       <c r="F46">
-        <v>0.05736745523895199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.002056440662011743</v>
+      </c>
+      <c r="G46">
+        <v>0.04107471367031221</v>
+      </c>
+      <c r="H46">
+        <v>-0.01051786395901668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08578815750061233</v>
+        <v>-0.06409843381365786</v>
       </c>
       <c r="C47">
-        <v>-0.04383204176610692</v>
+        <v>-0.02211555287515031</v>
       </c>
       <c r="D47">
-        <v>-0.01251341833050119</v>
+        <v>-0.05903726821421215</v>
       </c>
       <c r="E47">
-        <v>0.02935577167834852</v>
+        <v>0.005329827739698384</v>
       </c>
       <c r="F47">
-        <v>0.009204433484086817</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.009095304019654931</v>
+      </c>
+      <c r="G47">
+        <v>-0.00469453705613474</v>
+      </c>
+      <c r="H47">
+        <v>0.0267879835276967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01861881949711376</v>
+        <v>-0.01845254315075597</v>
       </c>
       <c r="C48">
-        <v>-0.009839885498819237</v>
+        <v>-0.004056392141315769</v>
       </c>
       <c r="D48">
-        <v>-0.02237349460027762</v>
+        <v>-0.0154295282074538</v>
       </c>
       <c r="E48">
-        <v>0.01176131334597502</v>
+        <v>0.001169077910358911</v>
       </c>
       <c r="F48">
-        <v>0.0328999796873127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.004642860863425876</v>
+      </c>
+      <c r="G48">
+        <v>0.01781183457239524</v>
+      </c>
+      <c r="H48">
+        <v>-0.02172908162501197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08508618799523746</v>
+        <v>-0.06692981336377879</v>
       </c>
       <c r="C50">
-        <v>-0.02623871169465563</v>
+        <v>-0.0199991345270304</v>
       </c>
       <c r="D50">
-        <v>-0.03474585568033184</v>
+        <v>-0.05527914000517188</v>
       </c>
       <c r="E50">
-        <v>0.02532297510378961</v>
+        <v>0.01661797804783038</v>
       </c>
       <c r="F50">
-        <v>0.01979739665984673</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.003329731852367806</v>
+      </c>
+      <c r="G50">
+        <v>0.005906294104822505</v>
+      </c>
+      <c r="H50">
+        <v>0.01444753325184393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01956777806262662</v>
+        <v>-0.01568435600825242</v>
       </c>
       <c r="C51">
-        <v>-0.003306102831637548</v>
+        <v>0.002313025275239032</v>
       </c>
       <c r="D51">
-        <v>-0.002711973545569525</v>
+        <v>-0.01153325912045486</v>
       </c>
       <c r="E51">
-        <v>0.001866492370123136</v>
+        <v>0.00838284648290254</v>
       </c>
       <c r="F51">
-        <v>0.08636239485659086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0006155942530210725</v>
+      </c>
+      <c r="G51">
+        <v>0.03415138335911114</v>
+      </c>
+      <c r="H51">
+        <v>-0.04588615783042779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09322219469210627</v>
+        <v>-0.08113636707888706</v>
       </c>
       <c r="C53">
-        <v>-0.04612769704858419</v>
+        <v>-0.02885581262579772</v>
       </c>
       <c r="D53">
-        <v>-0.02623530527887583</v>
+        <v>-0.09540038399836759</v>
       </c>
       <c r="E53">
-        <v>0.0440039697174362</v>
+        <v>0.01104922777434948</v>
       </c>
       <c r="F53">
-        <v>-0.03752626750731579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0303542923396993</v>
+      </c>
+      <c r="G53">
+        <v>-0.02939612916886248</v>
+      </c>
+      <c r="H53">
+        <v>0.02850647270136327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0226340004106213</v>
+        <v>-0.02675560939034825</v>
       </c>
       <c r="C54">
-        <v>2.029067957603942e-05</v>
+        <v>-0.006761912491608584</v>
       </c>
       <c r="D54">
-        <v>-0.007356201843716833</v>
+        <v>0.009012424739623175</v>
       </c>
       <c r="E54">
-        <v>0.01288363795303404</v>
+        <v>0.005871304517906584</v>
       </c>
       <c r="F54">
-        <v>0.0329087875271869</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.004085550353709825</v>
+      </c>
+      <c r="G54">
+        <v>0.03740501034664038</v>
+      </c>
+      <c r="H54">
+        <v>-0.005259043963975444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08854186859250987</v>
+        <v>-0.06361569527692953</v>
       </c>
       <c r="C55">
-        <v>-0.04142430349722357</v>
+        <v>-0.0250348802255533</v>
       </c>
       <c r="D55">
-        <v>-0.0389814290581348</v>
+        <v>-0.08738102559503583</v>
       </c>
       <c r="E55">
-        <v>0.03705261859823071</v>
+        <v>0.009478778116608076</v>
       </c>
       <c r="F55">
-        <v>-0.0386602266642691</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01817556535176642</v>
+      </c>
+      <c r="G55">
+        <v>-0.01179868554482237</v>
+      </c>
+      <c r="H55">
+        <v>0.03771306394510929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1326114056216265</v>
+        <v>-0.109070532569071</v>
       </c>
       <c r="C56">
-        <v>-0.07176926601088079</v>
+        <v>-0.04330420482537101</v>
       </c>
       <c r="D56">
-        <v>-0.007811692684441094</v>
+        <v>-0.1181382587677866</v>
       </c>
       <c r="E56">
-        <v>0.08156007836343232</v>
+        <v>0.009863590480126585</v>
       </c>
       <c r="F56">
-        <v>-0.073388165369191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05468574605152369</v>
+      </c>
+      <c r="G56">
+        <v>-0.05652683406915752</v>
+      </c>
+      <c r="H56">
+        <v>0.06665541795980547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0406647465473772</v>
+        <v>-0.03001228277024666</v>
       </c>
       <c r="C57">
-        <v>-0.03071534659091117</v>
+        <v>0.01458955838691411</v>
       </c>
       <c r="D57">
-        <v>-0.02585397606061032</v>
+        <v>-0.0374274379678765</v>
       </c>
       <c r="E57">
-        <v>-0.004733630684616025</v>
+        <v>-0.01012749128236742</v>
       </c>
       <c r="F57">
-        <v>0.04985950613603047</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.003064891180550295</v>
+      </c>
+      <c r="G57">
+        <v>0.06527066627877079</v>
+      </c>
+      <c r="H57">
+        <v>-0.05395960866577669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1561798143124462</v>
+        <v>-0.1138326336793676</v>
       </c>
       <c r="C58">
-        <v>-0.1904249026936227</v>
+        <v>-0.03186186295564993</v>
       </c>
       <c r="D58">
-        <v>-0.2144789770622976</v>
+        <v>-0.1753107240735146</v>
       </c>
       <c r="E58">
-        <v>0.04267410882366326</v>
+        <v>-0.2787031022269947</v>
       </c>
       <c r="F58">
-        <v>0.512886121253873</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2060844626486922</v>
+      </c>
+      <c r="G58">
+        <v>0.8006808198539974</v>
+      </c>
+      <c r="H58">
+        <v>0.3460083325408254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05751398987537087</v>
+        <v>-0.1897559165223008</v>
       </c>
       <c r="C59">
-        <v>-0.02573907865028295</v>
+        <v>-0.005123707541239803</v>
       </c>
       <c r="D59">
-        <v>0.1704906170523542</v>
+        <v>0.1951921575461966</v>
       </c>
       <c r="E59">
-        <v>-0.06256830397708563</v>
+        <v>-0.008794848966820526</v>
       </c>
       <c r="F59">
-        <v>0.08810641619133008</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.004762135646537903</v>
+      </c>
+      <c r="G59">
+        <v>0.01907699358413007</v>
+      </c>
+      <c r="H59">
+        <v>-0.02514827457182496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1410908140773415</v>
+        <v>-0.2063608808295998</v>
       </c>
       <c r="C60">
-        <v>-0.1042571186683987</v>
+        <v>-0.02257630352572626</v>
       </c>
       <c r="D60">
-        <v>-0.009225496124167953</v>
+        <v>-0.04360204146439559</v>
       </c>
       <c r="E60">
-        <v>-0.01635037348627737</v>
+        <v>-0.0505717352418706</v>
       </c>
       <c r="F60">
-        <v>0.1614631393633844</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.07460406285309588</v>
+      </c>
+      <c r="G60">
+        <v>0.02775513977333382</v>
+      </c>
+      <c r="H60">
+        <v>-0.3635825135114534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02105107451978157</v>
+        <v>-0.0177380767442261</v>
       </c>
       <c r="C61">
-        <v>-0.009984385908895884</v>
+        <v>-0.008255365458973193</v>
       </c>
       <c r="D61">
-        <v>-0.04114728276189178</v>
+        <v>-0.05963248803542927</v>
       </c>
       <c r="E61">
-        <v>0.01512865919725445</v>
+        <v>0.002922654048472921</v>
       </c>
       <c r="F61">
-        <v>0.01556606835184579</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0197625781848229</v>
+      </c>
+      <c r="G61">
+        <v>0.02185265556183229</v>
+      </c>
+      <c r="H61">
+        <v>-0.05972773338547008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01214759869346961</v>
+        <v>-0.008566274616150867</v>
       </c>
       <c r="C63">
-        <v>-0.00471676494502507</v>
+        <v>0.003083380638176484</v>
       </c>
       <c r="D63">
-        <v>-0.03194950069189402</v>
+        <v>-0.02404456587922754</v>
       </c>
       <c r="E63">
-        <v>0.01099906771967466</v>
+        <v>0.006528196422604433</v>
       </c>
       <c r="F63">
-        <v>0.009926262073038743</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.006672658752613036</v>
+      </c>
+      <c r="G63">
+        <v>0.01591140949902808</v>
+      </c>
+      <c r="H63">
+        <v>-0.01557916013777568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03473648206756531</v>
+        <v>-0.03922423699301408</v>
       </c>
       <c r="C64">
-        <v>-0.0008127323544081029</v>
+        <v>-0.007051090526246145</v>
       </c>
       <c r="D64">
-        <v>-0.03188786581745759</v>
+        <v>-0.03980542846661968</v>
       </c>
       <c r="E64">
-        <v>0.02331734727281162</v>
+        <v>0.01513489867974931</v>
       </c>
       <c r="F64">
-        <v>0.02378135942869897</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.005835902236937821</v>
+      </c>
+      <c r="G64">
+        <v>-0.009828043591924289</v>
+      </c>
+      <c r="H64">
+        <v>-0.05270396818643303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03574118505203441</v>
+        <v>-0.0395234682761261</v>
       </c>
       <c r="C65">
-        <v>-0.01056350295564169</v>
+        <v>-0.0001452295880368134</v>
       </c>
       <c r="D65">
-        <v>-0.03064929679061522</v>
+        <v>-0.07425470524403513</v>
       </c>
       <c r="E65">
-        <v>0.0266584228750786</v>
+        <v>0.008529748812566637</v>
       </c>
       <c r="F65">
-        <v>0.0005274734447833115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04340024518828571</v>
+      </c>
+      <c r="G65">
+        <v>0.000799390429083917</v>
+      </c>
+      <c r="H65">
+        <v>-0.07123712216582349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03389327334107436</v>
+        <v>-0.01906641074726872</v>
       </c>
       <c r="C66">
-        <v>-0.02856890969059699</v>
+        <v>-0.01131576021834326</v>
       </c>
       <c r="D66">
-        <v>-0.06006208887558709</v>
+        <v>-0.1129164031971094</v>
       </c>
       <c r="E66">
-        <v>0.04962999496512147</v>
+        <v>-0.006311533140067633</v>
       </c>
       <c r="F66">
-        <v>0.02842652584233132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03789160532367386</v>
+      </c>
+      <c r="G66">
+        <v>0.0310893570405105</v>
+      </c>
+      <c r="H66">
+        <v>-0.08276668584781248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01966501189491887</v>
+        <v>-0.04849199000697406</v>
       </c>
       <c r="C67">
-        <v>-0.01349244145851566</v>
+        <v>-0.01610137412249677</v>
       </c>
       <c r="D67">
-        <v>0.009690207253192695</v>
+        <v>-0.01871200197029657</v>
       </c>
       <c r="E67">
-        <v>-0.01352620699885352</v>
+        <v>-0.0006610473723078002</v>
       </c>
       <c r="F67">
-        <v>0.02495344228605438</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01931973491257182</v>
+      </c>
+      <c r="G67">
+        <v>0.01291166203592525</v>
+      </c>
+      <c r="H67">
+        <v>-0.03871444006458855</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07187998975027969</v>
+        <v>-0.1896524556382564</v>
       </c>
       <c r="C68">
-        <v>-0.02172228453480086</v>
+        <v>0.01742098042332745</v>
       </c>
       <c r="D68">
-        <v>0.1793142352702756</v>
+        <v>0.2166369309932246</v>
       </c>
       <c r="E68">
-        <v>-0.06587125811530115</v>
+        <v>-0.01109574379986954</v>
       </c>
       <c r="F68">
-        <v>0.07941773339093983</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04565468902746622</v>
+      </c>
+      <c r="G68">
+        <v>0.02681697030125609</v>
+      </c>
+      <c r="H68">
+        <v>0.04733170122622232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06230438932215891</v>
+        <v>-0.06127391252520999</v>
       </c>
       <c r="C69">
-        <v>-0.03500843304287039</v>
+        <v>-0.0249478806565602</v>
       </c>
       <c r="D69">
-        <v>-0.01179169685986121</v>
+        <v>-0.051096298167826</v>
       </c>
       <c r="E69">
-        <v>0.03690844146091093</v>
+        <v>0.005128555356391971</v>
       </c>
       <c r="F69">
-        <v>0.007843126346272345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0288508489243342</v>
+      </c>
+      <c r="G69">
+        <v>-0.008890411294914321</v>
+      </c>
+      <c r="H69">
+        <v>-0.0110821822105919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07909318720858077</v>
+        <v>-0.1706932822502649</v>
       </c>
       <c r="C71">
-        <v>-0.02901380175021042</v>
+        <v>0.006499406874975645</v>
       </c>
       <c r="D71">
-        <v>0.1941658297489517</v>
+        <v>0.1747627707132694</v>
       </c>
       <c r="E71">
-        <v>-0.1173441201364939</v>
+        <v>-0.01458984577053576</v>
       </c>
       <c r="F71">
-        <v>0.0861688880110582</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05605187856572037</v>
+      </c>
+      <c r="G71">
+        <v>0.03244213561264817</v>
+      </c>
+      <c r="H71">
+        <v>0.02007373208534365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09984821727062224</v>
+        <v>-0.06804268556798958</v>
       </c>
       <c r="C72">
-        <v>-0.06818412119650598</v>
+        <v>-0.03253071148253343</v>
       </c>
       <c r="D72">
-        <v>-0.05287701489655767</v>
+        <v>-0.09014814891936924</v>
       </c>
       <c r="E72">
-        <v>0.09162767831644822</v>
+        <v>-0.01343922555728652</v>
       </c>
       <c r="F72">
-        <v>0.06955156236199897</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07104489476398539</v>
+      </c>
+      <c r="G72">
+        <v>0.02529857582642496</v>
+      </c>
+      <c r="H72">
+        <v>-0.1167019416318373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1874975922584272</v>
+        <v>-0.2690840510997626</v>
       </c>
       <c r="C73">
-        <v>-0.17175738554026</v>
+        <v>-0.03268926803734966</v>
       </c>
       <c r="D73">
-        <v>0.01724565638021334</v>
+        <v>-0.1176174301555288</v>
       </c>
       <c r="E73">
-        <v>-0.05662341319841329</v>
+        <v>-0.09072764592007544</v>
       </c>
       <c r="F73">
-        <v>0.2008595229494809</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08906140822771098</v>
+      </c>
+      <c r="G73">
+        <v>0.04225152925214266</v>
+      </c>
+      <c r="H73">
+        <v>-0.4599591884559482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1246590840896131</v>
+        <v>-0.1080498636569534</v>
       </c>
       <c r="C74">
-        <v>-0.06724943871675132</v>
+        <v>-0.04328884283050451</v>
       </c>
       <c r="D74">
-        <v>-0.01520171497181564</v>
+        <v>-0.123140228817935</v>
       </c>
       <c r="E74">
-        <v>0.05191987264002177</v>
+        <v>0.0121715585620769</v>
       </c>
       <c r="F74">
-        <v>-0.07659753820870656</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.04259421675334211</v>
+      </c>
+      <c r="G74">
+        <v>-0.03873492161691382</v>
+      </c>
+      <c r="H74">
+        <v>0.03194771822972177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2129809644631949</v>
+        <v>-0.2106754624869491</v>
       </c>
       <c r="C75">
-        <v>-0.1275732482397724</v>
+        <v>-0.0805073208767848</v>
       </c>
       <c r="D75">
-        <v>0.001942129643138258</v>
+        <v>-0.1909784141185795</v>
       </c>
       <c r="E75">
-        <v>0.1548641516902347</v>
+        <v>0.009232382360430119</v>
       </c>
       <c r="F75">
-        <v>-0.112428363579481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.09957580111077055</v>
+      </c>
+      <c r="G75">
+        <v>-0.09836941902393806</v>
+      </c>
+      <c r="H75">
+        <v>0.1475414494769866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2593050907080452</v>
+        <v>-0.1696908966635131</v>
       </c>
       <c r="C76">
-        <v>-0.1123719656303843</v>
+        <v>-0.07357428477222137</v>
       </c>
       <c r="D76">
-        <v>-0.004825480748704286</v>
+        <v>-0.1858761270930994</v>
       </c>
       <c r="E76">
-        <v>0.1829213418768292</v>
+        <v>0.04604660025361387</v>
       </c>
       <c r="F76">
-        <v>-0.2045734944282215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.08923993738540152</v>
+      </c>
+      <c r="G76">
+        <v>-0.08916609460712308</v>
+      </c>
+      <c r="H76">
+        <v>0.1307024049161282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.100624230609367</v>
+        <v>-0.05983619448790668</v>
       </c>
       <c r="C77">
-        <v>-0.06652187936247404</v>
+        <v>-0.006692144913560547</v>
       </c>
       <c r="D77">
-        <v>-0.1330961360034369</v>
+        <v>-0.08711599597226234</v>
       </c>
       <c r="E77">
-        <v>-0.008433334120842146</v>
+        <v>-0.01798701839827588</v>
       </c>
       <c r="F77">
-        <v>0.1334290861843555</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02851060040885053</v>
+      </c>
+      <c r="G77">
+        <v>0.06911109186440678</v>
+      </c>
+      <c r="H77">
+        <v>-0.03068021413256834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06228143986951477</v>
+        <v>-0.03419348656878279</v>
       </c>
       <c r="C78">
-        <v>-0.02672599946400295</v>
+        <v>-0.01001605937268164</v>
       </c>
       <c r="D78">
-        <v>-0.115582357871288</v>
+        <v>-0.07220958497976807</v>
       </c>
       <c r="E78">
-        <v>0.04600643406006202</v>
+        <v>0.00538161939022159</v>
       </c>
       <c r="F78">
-        <v>0.07402029137876323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.0139972531339498</v>
+      </c>
+      <c r="G78">
+        <v>0.05653064872188525</v>
+      </c>
+      <c r="H78">
+        <v>-0.09676442949886178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5198930125335263</v>
+        <v>-0.1157827799022141</v>
       </c>
       <c r="C80">
-        <v>0.8360271294422346</v>
+        <v>-0.02159505446969085</v>
       </c>
       <c r="D80">
-        <v>-0.07581781875387003</v>
+        <v>-0.09403550086332987</v>
       </c>
       <c r="E80">
-        <v>-0.02857564444096623</v>
+        <v>0.9135073244286979</v>
       </c>
       <c r="F80">
-        <v>0.04144406283666447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2784964608818321</v>
+      </c>
+      <c r="G80">
+        <v>0.1810875266873941</v>
+      </c>
+      <c r="H80">
+        <v>-0.01000157040683245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1675654809904485</v>
+        <v>-0.1381515309926405</v>
       </c>
       <c r="C81">
-        <v>-0.08742086570075457</v>
+        <v>-0.05171463434359836</v>
       </c>
       <c r="D81">
-        <v>0.008058823088326252</v>
+        <v>-0.1249800151967545</v>
       </c>
       <c r="E81">
-        <v>0.1241333540670542</v>
+        <v>0.01567656762717716</v>
       </c>
       <c r="F81">
-        <v>-0.1156262352047165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.061720581209282</v>
+      </c>
+      <c r="G81">
+        <v>-0.05868343223674432</v>
+      </c>
+      <c r="H81">
+        <v>0.08704802952930916</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03114743661116375</v>
+        <v>-0.03084852796823009</v>
       </c>
       <c r="C83">
-        <v>-0.02298993642605278</v>
+        <v>-0.003491981368060441</v>
       </c>
       <c r="D83">
-        <v>-0.03176844937216566</v>
+        <v>-0.02735504057173435</v>
       </c>
       <c r="E83">
-        <v>-0.005515181640281195</v>
+        <v>-0.006803241939506096</v>
       </c>
       <c r="F83">
-        <v>0.06066407673702104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0007557280368305924</v>
+      </c>
+      <c r="G83">
+        <v>0.0385708284931613</v>
+      </c>
+      <c r="H83">
+        <v>-0.04510959027354207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2350919747701982</v>
+        <v>-0.2011528416108557</v>
       </c>
       <c r="C85">
-        <v>-0.1245117214585947</v>
+        <v>-0.06650862339922531</v>
       </c>
       <c r="D85">
-        <v>-0.005052086819230019</v>
+        <v>-0.1952515572067629</v>
       </c>
       <c r="E85">
-        <v>0.1369672957402963</v>
+        <v>0.009354216478300424</v>
       </c>
       <c r="F85">
-        <v>-0.150200780470714</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.09179240904199595</v>
+      </c>
+      <c r="G85">
+        <v>-0.1263200885481667</v>
+      </c>
+      <c r="H85">
+        <v>0.07153632106819793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006360736580854386</v>
+        <v>-0.0174894418162752</v>
       </c>
       <c r="C86">
-        <v>0.004680668201134473</v>
+        <v>-0.0006654889069657086</v>
       </c>
       <c r="D86">
-        <v>-0.07397950150324385</v>
+        <v>-0.0395110978500269</v>
       </c>
       <c r="E86">
-        <v>0.009135527315683423</v>
+        <v>0.008053256509455219</v>
       </c>
       <c r="F86">
-        <v>0.05212341430539885</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01035221816969811</v>
+      </c>
+      <c r="G86">
+        <v>0.03832244265400296</v>
+      </c>
+      <c r="H86">
+        <v>-0.08831548779617736</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03645930458886584</v>
+        <v>-0.01868345571144826</v>
       </c>
       <c r="C87">
-        <v>-0.01817302322258559</v>
+        <v>-0.001306402151396738</v>
       </c>
       <c r="D87">
-        <v>-0.03809963891895034</v>
+        <v>-0.04904540111953073</v>
       </c>
       <c r="E87">
-        <v>0.006653688465422178</v>
+        <v>-0.0030695049966252</v>
       </c>
       <c r="F87">
-        <v>0.1058763994087828</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0006195231649709715</v>
+      </c>
+      <c r="G87">
+        <v>0.07334700403819645</v>
+      </c>
+      <c r="H87">
+        <v>-0.085380968098942</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0202469451220998</v>
+        <v>-0.04138756412820839</v>
       </c>
       <c r="C88">
-        <v>0.004289032365412112</v>
+        <v>0.01270689021702952</v>
       </c>
       <c r="D88">
-        <v>0.006492712064899514</v>
+        <v>-0.02056888102719231</v>
       </c>
       <c r="E88">
-        <v>0.01662520066182084</v>
+        <v>0.01909791359733654</v>
       </c>
       <c r="F88">
-        <v>-0.01645986851611217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01608847116854412</v>
+      </c>
+      <c r="G88">
+        <v>-0.003223865889014313</v>
+      </c>
+      <c r="H88">
+        <v>-0.01361168660879965</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1081112553497506</v>
+        <v>-0.2968492974556712</v>
       </c>
       <c r="C89">
-        <v>-0.04465311358132375</v>
+        <v>0.01344454822260962</v>
       </c>
       <c r="D89">
-        <v>0.3107203858390712</v>
+        <v>0.3167174406349987</v>
       </c>
       <c r="E89">
-        <v>-0.1138605691504836</v>
+        <v>-0.01298678067069797</v>
       </c>
       <c r="F89">
-        <v>0.1094510452946316</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01949065625134837</v>
+      </c>
+      <c r="G89">
+        <v>-0.02197198792248868</v>
+      </c>
+      <c r="H89">
+        <v>-0.008106617924218159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09437823545291629</v>
+        <v>-0.2440689659143486</v>
       </c>
       <c r="C90">
-        <v>-0.01638649464971595</v>
+        <v>0.01234539744226798</v>
       </c>
       <c r="D90">
-        <v>0.3356665791190279</v>
+        <v>0.286056038387258</v>
       </c>
       <c r="E90">
-        <v>-0.1387819015744441</v>
+        <v>-0.005266444709593716</v>
       </c>
       <c r="F90">
-        <v>0.05924589016175345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05876584393141056</v>
+      </c>
+      <c r="G90">
+        <v>-0.004761107582582712</v>
+      </c>
+      <c r="H90">
+        <v>0.051288485859744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2676804926486379</v>
+        <v>-0.2110788625560384</v>
       </c>
       <c r="C91">
-        <v>-0.1632145301733386</v>
+        <v>-0.07710412961029414</v>
       </c>
       <c r="D91">
-        <v>-0.005437425531828422</v>
+        <v>-0.177734385981986</v>
       </c>
       <c r="E91">
-        <v>0.134922615393649</v>
+        <v>-0.002581443712035995</v>
       </c>
       <c r="F91">
-        <v>-0.2403884661779086</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.0842307727282853</v>
+      </c>
+      <c r="G91">
+        <v>-0.1183155140379612</v>
+      </c>
+      <c r="H91">
+        <v>0.1667206989982621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1647343758095125</v>
+        <v>-0.2746940075414156</v>
       </c>
       <c r="C92">
-        <v>-0.06278408736644418</v>
+        <v>-0.04810046057985286</v>
       </c>
       <c r="D92">
-        <v>0.443435321350171</v>
+        <v>0.207502483282046</v>
       </c>
       <c r="E92">
-        <v>0.003506325898924615</v>
+        <v>0.006196608530890936</v>
       </c>
       <c r="F92">
-        <v>-0.03006683300216419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.01015950081984096</v>
+      </c>
+      <c r="G92">
+        <v>0.02627473648874755</v>
+      </c>
+      <c r="H92">
+        <v>0.1329201791177758</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09455000748122221</v>
+        <v>-0.2740148635180559</v>
       </c>
       <c r="C93">
-        <v>-0.05387904642371979</v>
+        <v>0.003080207656815748</v>
       </c>
       <c r="D93">
-        <v>0.4017597318552417</v>
+        <v>0.2948753560592272</v>
       </c>
       <c r="E93">
-        <v>-0.1854550315418435</v>
+        <v>-0.0332494304346773</v>
       </c>
       <c r="F93">
-        <v>0.06929841110415784</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0529726674286604</v>
+      </c>
+      <c r="G93">
+        <v>-0.01129788111779235</v>
+      </c>
+      <c r="H93">
+        <v>-0.008090211977708416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2590110034344741</v>
+        <v>-0.2549139298474279</v>
       </c>
       <c r="C94">
-        <v>-0.1667898585519029</v>
+        <v>-0.07202695102913889</v>
       </c>
       <c r="D94">
-        <v>0.02435864200641659</v>
+        <v>-0.1930967583312127</v>
       </c>
       <c r="E94">
-        <v>0.232074837261025</v>
+        <v>-0.005279241819375413</v>
       </c>
       <c r="F94">
-        <v>-0.1838532118025787</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2013396002145076</v>
+      </c>
+      <c r="G94">
+        <v>-0.201633111977353</v>
+      </c>
+      <c r="H94">
+        <v>0.3862512561342877</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02488061279847154</v>
+        <v>-0.0425511243867823</v>
       </c>
       <c r="C95">
-        <v>-0.08701889920338891</v>
+        <v>-0.02730376073109109</v>
       </c>
       <c r="D95">
-        <v>-0.06529997511525694</v>
+        <v>-0.09279816677054679</v>
       </c>
       <c r="E95">
-        <v>0.008214970078067483</v>
+        <v>-0.08180206023487196</v>
       </c>
       <c r="F95">
-        <v>0.02014984373855649</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01034685997977917</v>
+      </c>
+      <c r="G95">
+        <v>0.03599645696041599</v>
+      </c>
+      <c r="H95">
+        <v>-0.05094491082766587</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1487043523165669</v>
+        <v>-0.186725672228344</v>
       </c>
       <c r="C98">
-        <v>-0.1100643005262052</v>
+        <v>-0.04881214435460943</v>
       </c>
       <c r="D98">
-        <v>0.02188072424921893</v>
+        <v>-0.05796034328112552</v>
       </c>
       <c r="E98">
-        <v>-0.06428985659773405</v>
+        <v>-0.06209558558240599</v>
       </c>
       <c r="F98">
-        <v>0.1596821802311207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.02372328630258505</v>
+      </c>
+      <c r="G98">
+        <v>0.06855206297347216</v>
+      </c>
+      <c r="H98">
+        <v>-0.3346199734210042</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008434381831115865</v>
+        <v>-0.01148725281442676</v>
       </c>
       <c r="C101">
-        <v>0.001334099874025344</v>
+        <v>0.001858461549988906</v>
       </c>
       <c r="D101">
-        <v>-0.06310655829981246</v>
+        <v>-0.01878338932448383</v>
       </c>
       <c r="E101">
-        <v>0.03938067713854613</v>
+        <v>-0.001313649579712411</v>
       </c>
       <c r="F101">
-        <v>0.1674836760225524</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.001027182132802687</v>
+      </c>
+      <c r="G101">
+        <v>0.09871508107822662</v>
+      </c>
+      <c r="H101">
+        <v>0.01077615312891838</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1076402229718019</v>
+        <v>-0.0977037622407782</v>
       </c>
       <c r="C102">
-        <v>-0.05428302609995395</v>
+        <v>-0.02464294649197129</v>
       </c>
       <c r="D102">
-        <v>-0.0006883008969106694</v>
+        <v>-0.09179945772771177</v>
       </c>
       <c r="E102">
-        <v>0.07226135739054824</v>
+        <v>0.008609981312977914</v>
       </c>
       <c r="F102">
-        <v>-0.0954026361633441</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04809148143915829</v>
+      </c>
+      <c r="G102">
+        <v>-0.05492891682307704</v>
+      </c>
+      <c r="H102">
+        <v>0.06173792137690249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0421757373301052</v>
+        <v>-0.01329320882374798</v>
       </c>
       <c r="C103">
-        <v>-0.008237743355999035</v>
+        <v>-0.004718379517382605</v>
       </c>
       <c r="D103">
-        <v>-0.02256569322918369</v>
+        <v>-0.01774732371178837</v>
       </c>
       <c r="E103">
-        <v>0.0423254779569078</v>
+        <v>0.01286584162922872</v>
       </c>
       <c r="F103">
-        <v>-0.006529268471139135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.004541743328072641</v>
+      </c>
+      <c r="G103">
+        <v>0.005087148954915511</v>
+      </c>
+      <c r="H103">
+        <v>0.01321194376359264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1342375724935246</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9704696902641866</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1078561960164281</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02959154876419464</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1256939259648298</v>
+      </c>
+      <c r="G104">
+        <v>0.01048120715993612</v>
+      </c>
+      <c r="H104">
+        <v>0.05240727712990467</v>
       </c>
     </row>
   </sheetData>
